--- a/Backend/Model Metrics/metrics_rfc_vaso.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_vaso.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9121338912133892</v>
+        <v>0.9163179916317992</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9180327868852459</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9145299145299145</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8976377952755905</v>
+        <v>0.9180327868852459</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9145299145299145</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9632198402690206</v>
+        <v>0.9676334594367381</v>
       </c>
     </row>
   </sheetData>
